--- a/src/test/data/anno_LabelledArrayCells_template.xlsx
+++ b/src/test/data/anno_LabelledArrayCells_template.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="630" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="4860" yWindow="630" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="通常" sheetId="4" r:id="rId1"/>
     <sheet name="結合の考慮" sheetId="5" r:id="rId2"/>
-    <sheet name="正規表現で一致" sheetId="6" r:id="rId3"/>
-    <sheet name="数式を指定" sheetId="7" r:id="rId4"/>
+    <sheet name="見出しから離れたセル" sheetId="8" r:id="rId3"/>
+    <sheet name="正規表現で一致" sheetId="6" r:id="rId4"/>
+    <sheet name="数式を指定" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>アノテーション「@XlsLabelledArrayCell」のテスタ</t>
     <phoneticPr fontId="2"/>
@@ -239,11 +240,33 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>見出しから離れたセル</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベル(skip)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベル(range)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベル(skip+range)</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
@@ -465,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -475,8 +498,21 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -499,13 +535,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -516,9 +548,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -528,12 +557,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -544,12 +568,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -591,7 +618,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,9 +651,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,6 +703,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -971,62 +1032,62 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1046,6 +1107,152 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="F12" s="40"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="E17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="H29" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1054,68 +1261,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="23"/>
+    <col min="1" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="35"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H11" s="34"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1132,35 +1339,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="23"/>
+    <col min="1" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C4"/>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E4"/>
@@ -1172,21 +1379,21 @@
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="10"/>
+      <c r="B5" s="9"/>
       <c r="C5"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="G5"/>
       <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="18">
         <v>42856</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
@@ -1196,7 +1403,7 @@
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="10"/>
+      <c r="B7" s="9"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>

--- a/src/test/data/anno_LabelledArrayCells_template.xlsx
+++ b/src/test/data/anno_LabelledArrayCells_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7904D4-DB7F-4C64-8792-2E15C40D557E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="630" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="35160" yWindow="2565" windowWidth="21615" windowHeight="13860" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通常" sheetId="4" r:id="rId1"/>
@@ -12,13 +13,14 @@
     <sheet name="見出しから離れたセル" sheetId="8" r:id="rId3"/>
     <sheet name="正規表現で一致" sheetId="6" r:id="rId4"/>
     <sheet name="数式を指定" sheetId="7" r:id="rId5"/>
+    <sheet name="コメント情報" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>アノテーション「@XlsLabelledArrayCell」のテスタ</t>
     <phoneticPr fontId="2"/>
@@ -262,11 +264,29 @@
     <t>ラベル(skip+range)</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>挨拶</t>
+    <rPh sb="0" eb="2">
+      <t>アイサツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメント情報のマッピング</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アノテーション「@XlsLabelledArrayCell」のテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
@@ -362,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -484,11 +504,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -510,6 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -557,7 +604,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -895,7 +945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1012,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1032,10 +1082,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -1044,50 +1094,50 @@
       <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1106,10 +1156,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1167,7 +1217,7 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="F12" s="40"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
@@ -1252,7 +1302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1278,8 +1328,8 @@
       <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
@@ -1287,42 +1337,42 @@
       <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1340,7 +1390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1426,4 +1476,64 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E26EA3-A21D-4C18-835C-6DCF5BBC8BE1}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="43"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="42"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>